--- a/medicine/Sexualité et sexologie/Aspasie_(Genève)/Aspasie_(Genève).xlsx
+++ b/medicine/Sexualité et sexologie/Aspasie_(Genève)/Aspasie_(Genève).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aspasie_(Gen%C3%A8ve)</t>
+          <t>Aspasie_(Genève)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspasie est une association suisse de défense des prostituées qui se définit comme suit : « association de lutte contre la discrimination et l’exclusion, pour la dignité des personnes travaillant dans le marché du sexe ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aspasie_(Gen%C3%A8ve)</t>
+          <t>Aspasie_(Genève)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspasie est fondée en 1982 à Genève sous l'impulsion de travailleuses du sexe (dont Grisélidis Réal) et de travailleuses sociales. Le nom de l'association fait référence à Aspasie, une célèbre courtisane et compagne de Périclès en Grèce antique dans la seconde moitié du Ve siècle av. J.-C.
 En 1988, des divergences internes entre deux figures marquantes d'Aspasie provoquent une scission. D'un côté, Nicole Castioni, auteur du Soleil au bout de la nuit, est élue à la présidence de l'association. Son livre décrit ses expériences comme prostituée (et toxicomane) à Paris qu'elle a vécues comme exploitation. D'un autre côté, Grisélidis Réal qui s’engage depuis longtemps avec quelques collègues pour une reconnaissance de la prostitution comme « activité
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aspasie_(Gen%C3%A8ve)</t>
+          <t>Aspasie_(Genève)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aspasie est active auprès des trois groupes de la prostitution : les professionnelles établies, les migrantes et les toxicomanes. Les activités de l'association sont visibles à travers les actions suivantes :
 Aspasie prévention migrantes : Interventions, dans les cabarets, les bars, les salons et autres lieux par une équipe pluridisciplinaire composée d’une assistante sociale, d’une infirmière et de médiatrices culturelles.
